--- a/source/ALPHA wild resources (1).xlsx
+++ b/source/ALPHA wild resources (1).xlsx
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="S4" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -983,7 +983,7 @@
         <v>53</v>
       </c>
       <c r="S6" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1593,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="K18" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>20</v>
@@ -1848,7 +1848,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>57</v>
@@ -3269,8 +3269,8 @@
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="B34:B40"/>
     <mergeCell ref="C34:C40"/>
+    <mergeCell ref="D34:D40"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="D34:D40"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
